--- a/exampleProblems/cellobiose/cellobiose.xlsx
+++ b/exampleProblems/cellobiose/cellobiose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/cellobiose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C8191DF2CB38ED1D291AA88C1DEA75991E4EE8D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDE58E1-40DC-9549-B78A-E64759F21C0F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_C8191DF2CB38ED1D291AA88C1DEA75991E4EE8D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498694EE-576D-484A-AF49-89F96EF5FCFD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -707,10 +707,10 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="79.83203125" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -741,16 +741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -777,7 +779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -806,7 +808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -864,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -891,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -920,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -949,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -978,7 +980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1192,7 +1194,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1203,7 +1205,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1214,7 +1216,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1225,7 +1227,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1236,7 +1238,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1247,7 +1249,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1258,7 +1260,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1294,9 +1296,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1329,7 +1331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1361,7 +1363,7 @@
       <c r="K2" s="10"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1393,7 +1395,7 @@
       <c r="K3" s="10"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1425,7 +1427,7 @@
       <c r="K4" s="10"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1457,7 +1459,7 @@
       <c r="K5" s="10"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1488,7 +1490,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1520,7 +1522,7 @@
       <c r="K7" s="10"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1552,7 +1554,7 @@
       <c r="K8" s="10"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1584,7 +1586,7 @@
       <c r="K9" s="10"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="K10" s="10"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1648,7 +1650,7 @@
       <c r="K11" s="10"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1680,7 +1682,7 @@
       <c r="K12" s="10"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1712,7 +1714,7 @@
       <c r="K13" s="10"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1744,7 +1746,7 @@
       <c r="K14" s="10"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1776,7 +1778,7 @@
       <c r="K15" s="10"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="17">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1790,7 +1792,7 @@
       <c r="K16" s="10"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="17">
+    <row r="17" spans="1:13" ht="16.5">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1804,7 +1806,7 @@
       <c r="K17" s="10"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="17">
+    <row r="18" spans="1:13" ht="16.5">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1818,7 +1820,7 @@
       <c r="K18" s="10"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="17">
+    <row r="19" spans="1:13" ht="16.5">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1832,7 +1834,7 @@
       <c r="K19" s="10"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="17">
+    <row r="20" spans="1:13" ht="16.5">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1883,9 +1885,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1929,7 +1931,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1962,7 +1964,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1995,7 +1997,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2028,7 +2030,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2061,7 +2063,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2094,7 +2096,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2127,7 +2129,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2160,7 +2162,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2193,7 +2195,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2226,7 +2228,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2259,7 +2261,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2292,7 +2294,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2325,7 +2327,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2646,9 +2648,9 @@
       <selection activeCell="K23" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2692,7 +2694,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2723,7 +2725,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2785,7 +2787,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2816,7 +2818,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2847,7 +2849,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2878,7 +2880,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2909,7 +2911,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2940,7 +2942,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2971,7 +2973,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3033,7 +3035,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3064,7 +3066,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3095,7 +3097,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -3126,7 +3128,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3157,7 +3159,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3188,7 +3190,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3219,7 +3221,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3312,7 +3314,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3343,7 +3345,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3374,7 +3376,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3387,7 +3389,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3400,7 +3402,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3413,7 +3415,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3724,7 +3726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3738,9 +3740,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -3767,7 +3769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3792,7 +3794,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
@@ -3818,7 +3820,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
@@ -3844,7 +3846,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3870,7 +3872,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3896,7 +3898,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3922,7 +3924,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3948,7 +3950,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3974,7 +3976,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4000,7 +4002,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4026,7 +4028,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4052,7 +4054,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4103,9 +4105,9 @@
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -4132,7 +4134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4157,7 +4159,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4207,7 +4209,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4232,7 +4234,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4257,7 +4259,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4332,7 +4334,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4357,7 +4359,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4382,7 +4384,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4407,7 +4409,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4457,7 +4459,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -4491,13 +4493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE123A5-99C2-0849-9A0D-D9D13D2D3201}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -4545,12 +4547,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4767,6 +4763,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
@@ -4776,23 +4778,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4809,4 +4794,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>